--- a/output_products/dropped stations.xlsx
+++ b/output_products/dropped stations.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
